--- a/pred_ohlcv/54_21/2019-10-21 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 BTG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1223.76610776</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1223.76610776</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1223.76610776</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1137.36650776</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1209.37720776</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1112.14550776</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-889.4034077599999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-918.85030776</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1975.2972951</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1768.7604951</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1669.09127829</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1756.09127829</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1720.45397829</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-25.4905782899998</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-25.4905782899998</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2.483378289999802</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>67.4837217100002</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>73.97762171000019</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>231.8811217100002</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>231.8811217100002</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>340.6040217100002</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1285.85032171</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1171.32342171</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1149.98752171</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1149.88752171</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>895.9479217100002</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>824.2605217100001</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>642.1605217100001</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>407.7247217100002</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>647.3892217100001</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-21 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 BTG ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-1223.76610776</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1223.76610776</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1137.36650776</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1209.37720776</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-889.4034077599999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-918.85030776</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-843.35030776</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-843.35030776</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-843.35030776</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1975.2972951</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1768.7604951</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1667.62927829</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1669.09127829</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1669.09127829</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-25.4905782899998</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-25.4905782899998</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-25.4905782899998</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2.483378289999802</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>67.4837217100002</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>73.97762171000019</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>231.8811217100002</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>231.8811217100002</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>340.6040217100002</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1285.85032171</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1246.42342171</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1171.32342171</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1149.98752171</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1149.88752171</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>824.2605217100001</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
